--- a/hot-deploy/partner/document/2015 问题和需求汇总/2015问题总表.xlsx
+++ b/hot-deploy/partner/document/2015 问题和需求汇总/2015问题总表.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="富桥" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="110">
   <si>
     <t>提出时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -335,10 +335,6 @@
   </si>
   <si>
     <t>高</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -623,15 +619,19 @@
     默认hided。所有隐藏。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>见《2015新模块需求》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -747,6 +747,14 @@
     <font>
       <sz val="11"/>
       <color theme="4"/>
+      <name val="黑体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="黑体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -876,7 +884,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1017,13 +1025,58 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="差" xfId="1" builtinId="27"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="103">
+  <dxfs count="95">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1079,104 +1132,6 @@
           <bgColor theme="5" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
     </dxf>
     <dxf>
       <fill>
@@ -1801,7 +1756,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1833,9 +1788,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1867,6 +1823,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2042,11 +1999,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G42"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2057,10 +2014,11 @@
     <col min="5" max="5" width="10.5" style="8" customWidth="1"/>
     <col min="6" max="6" width="10.25" style="8" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="87.5" style="3" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="1"/>
+    <col min="8" max="8" width="22.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="4" customFormat="1" ht="11.25" customHeight="1">
+    <row r="1" spans="1:8" s="4" customFormat="1" ht="11.25" customHeight="1">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -2083,12 +2041,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8">
       <c r="A2" s="7">
         <v>42014</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>45</v>
@@ -2105,13 +2063,16 @@
       <c r="G2" s="3" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="108">
+      <c r="H2" s="47" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="108">
       <c r="A3" s="7">
         <v>42061</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>58</v>
@@ -2129,12 +2090,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="54">
+    <row r="4" spans="1:8" ht="54">
       <c r="A4" s="7">
         <v>42070</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>58</v>
@@ -2152,12 +2113,12 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="40.5">
+    <row r="5" spans="1:8" ht="40.5">
       <c r="A5" s="7">
         <v>42090</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>58</v>
@@ -2172,50 +2133,50 @@
         <v>8</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:8">
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:8">
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:8">
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:8">
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:8">
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:8">
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:8">
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:8">
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:8">
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:8">
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
     </row>
@@ -2302,87 +2263,87 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:B18">
-    <cfRule type="cellIs" dxfId="102" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="59" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="101" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="60" operator="equal">
       <formula>"完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C42">
-    <cfRule type="cellIs" dxfId="100" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="48" operator="equal">
       <formula>"高"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="99" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="49" operator="equal">
       <formula>"低"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="98" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="50" operator="equal">
       <formula>"中"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C42">
-    <cfRule type="cellIs" dxfId="97" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="45" operator="equal">
       <formula>"高"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="46" operator="equal">
       <formula>"低"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="95" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="47" operator="equal">
       <formula>"中"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
-    <cfRule type="cellIs" dxfId="94" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="13" operator="equal">
       <formula>"高"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="14" operator="equal">
       <formula>"低"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="92" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="15" operator="equal">
       <formula>"中"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2">
-    <cfRule type="cellIs" dxfId="91" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="10" operator="equal">
       <formula>"高"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="11" operator="equal">
       <formula>"低"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="89" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="12" operator="equal">
       <formula>"中"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C42">
-    <cfRule type="cellIs" dxfId="88" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="7" operator="equal">
       <formula>"高"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="87" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="8" operator="equal">
       <formula>"低"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="9" operator="equal">
       <formula>"中"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4">
-    <cfRule type="cellIs" dxfId="85" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="4" operator="equal">
       <formula>"高"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="5" operator="equal">
       <formula>"低"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="83" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="6" operator="equal">
       <formula>"中"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="cellIs" dxfId="82" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="1" operator="equal">
       <formula>"高"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="2" operator="equal">
       <formula>"低"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="3" operator="equal">
       <formula>"中"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2400,11 +2361,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39:E53"/>
+    <sheetView topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G70" sqref="G70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2433,7 +2394,7 @@
         <v>44</v>
       </c>
       <c r="E1" s="41" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>41</v>
@@ -2459,7 +2420,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="42" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>5</v>
@@ -2485,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="42" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>5</v>
@@ -2511,7 +2472,7 @@
         <v>300</v>
       </c>
       <c r="E4" s="42" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>5</v>
@@ -2537,7 +2498,7 @@
         <v>500</v>
       </c>
       <c r="E5" s="42" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F5" s="27" t="s">
         <v>47</v>
@@ -2554,7 +2515,7 @@
         <v>42005</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C6" s="32" t="s">
         <v>12</v>
@@ -2563,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="42" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F6" s="32" t="s">
         <v>47</v>
@@ -2589,7 +2550,7 @@
         <v>0</v>
       </c>
       <c r="E7" s="42" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>5</v>
@@ -2615,7 +2576,7 @@
         <v>400</v>
       </c>
       <c r="E8" s="42" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>5</v>
@@ -2641,7 +2602,7 @@
         <v>0</v>
       </c>
       <c r="E9" s="42" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>5</v>
@@ -2667,7 +2628,7 @@
         <v>0</v>
       </c>
       <c r="E10" s="42" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>5</v>
@@ -2693,7 +2654,7 @@
         <v>400</v>
       </c>
       <c r="E11" s="42" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>5</v>
@@ -2719,7 +2680,7 @@
         <v>800</v>
       </c>
       <c r="E12" s="42" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>5</v>
@@ -2745,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="E13" s="42" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>5</v>
@@ -2771,10 +2732,10 @@
         <v>1000</v>
       </c>
       <c r="E14" s="42" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>5</v>
@@ -2795,7 +2756,7 @@
       </c>
       <c r="D15" s="45"/>
       <c r="E15" s="42" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>5</v>
@@ -2819,7 +2780,7 @@
       </c>
       <c r="D16" s="46"/>
       <c r="E16" s="42" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>5</v>
@@ -2845,7 +2806,7 @@
         <v>200</v>
       </c>
       <c r="E17" s="42" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>5</v>
@@ -2871,7 +2832,7 @@
         <v>0</v>
       </c>
       <c r="E18" s="42" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>5</v>
@@ -2897,7 +2858,7 @@
         <v>200</v>
       </c>
       <c r="E19" s="42" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>5</v>
@@ -2923,7 +2884,7 @@
         <v>500</v>
       </c>
       <c r="E20" s="42" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>5</v>
@@ -2984,7 +2945,7 @@
         <v>5</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="40.5">
@@ -2995,22 +2956,22 @@
         <v>10</v>
       </c>
       <c r="C23" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D23" s="24">
+        <v>0</v>
+      </c>
+      <c r="E23" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="H23" s="11" t="s">
         <v>79</v>
-      </c>
-      <c r="D23" s="24">
-        <v>0</v>
-      </c>
-      <c r="E23" s="42" t="s">
-        <v>75</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="H23" s="11" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="27">
@@ -3036,7 +2997,7 @@
         <v>5</v>
       </c>
       <c r="H24" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="27">
@@ -3062,7 +3023,7 @@
         <v>5</v>
       </c>
       <c r="H25" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="162">
@@ -3070,25 +3031,25 @@
         <v>42073</v>
       </c>
       <c r="B26" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C26" s="42" t="s">
         <v>76</v>
       </c>
-      <c r="C26" s="42" t="s">
+      <c r="D26" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="E26" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="F26" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="G26" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="H26" s="11" t="s">
         <v>77</v>
-      </c>
-      <c r="D26" s="42" t="s">
-        <v>77</v>
-      </c>
-      <c r="E26" s="42" t="s">
-        <v>77</v>
-      </c>
-      <c r="F26" s="42" t="s">
-        <v>77</v>
-      </c>
-      <c r="G26" s="42" t="s">
-        <v>77</v>
-      </c>
-      <c r="H26" s="11" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -3105,7 +3066,7 @@
         <v>0</v>
       </c>
       <c r="E27" s="42" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F27" s="7" t="s">
         <v>5</v>
@@ -3114,7 +3075,7 @@
         <v>5</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="81">
@@ -3131,7 +3092,7 @@
         <v>0</v>
       </c>
       <c r="E28" s="42" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>5</v>
@@ -3140,7 +3101,7 @@
         <v>5</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="67.5">
@@ -3148,7 +3109,7 @@
         <v>42088</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>42</v>
@@ -3157,7 +3118,7 @@
         <v>0</v>
       </c>
       <c r="E29" s="42" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>5</v>
@@ -3166,7 +3127,7 @@
         <v>5</v>
       </c>
       <c r="H29" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="67.5">
@@ -3192,7 +3153,7 @@
         <v>5</v>
       </c>
       <c r="H30" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="94.5">
@@ -3209,7 +3170,7 @@
         <v>0</v>
       </c>
       <c r="E31" s="42" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>5</v>
@@ -3218,7 +3179,7 @@
         <v>5</v>
       </c>
       <c r="H31" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="40.5">
@@ -3244,7 +3205,7 @@
         <v>5</v>
       </c>
       <c r="H32" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="67.5">
@@ -3261,7 +3222,7 @@
         <v>0</v>
       </c>
       <c r="E33" s="42" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F33" s="7" t="s">
         <v>5</v>
@@ -3270,7 +3231,7 @@
         <v>5</v>
       </c>
       <c r="H33" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="148.5">
@@ -3287,7 +3248,7 @@
         <v>0</v>
       </c>
       <c r="E34" s="42" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>5</v>
@@ -3296,7 +3257,7 @@
         <v>5</v>
       </c>
       <c r="H34" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="27">
@@ -3313,7 +3274,7 @@
         <v>0</v>
       </c>
       <c r="E35" s="42" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F35" s="7" t="s">
         <v>5</v>
@@ -3322,7 +3283,7 @@
         <v>5</v>
       </c>
       <c r="H35" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -3339,7 +3300,7 @@
         <v>0</v>
       </c>
       <c r="E36" s="42" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>5</v>
@@ -3348,7 +3309,7 @@
         <v>5</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="27">
@@ -3374,7 +3335,7 @@
         <v>5</v>
       </c>
       <c r="H37" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="27">
@@ -3400,7 +3361,7 @@
         <v>5</v>
       </c>
       <c r="H38" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -3417,7 +3378,7 @@
         <v>0</v>
       </c>
       <c r="E39" s="42" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F39" s="7" t="s">
         <v>5</v>
@@ -3426,7 +3387,7 @@
         <v>5</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -3443,7 +3404,7 @@
         <v>0</v>
       </c>
       <c r="E40" s="42" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F40" s="7" t="s">
         <v>5</v>
@@ -3452,7 +3413,7 @@
         <v>5</v>
       </c>
       <c r="H40" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -3469,7 +3430,7 @@
         <v>0</v>
       </c>
       <c r="E41" s="42" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F41" s="7" t="s">
         <v>5</v>
@@ -3478,7 +3439,7 @@
         <v>5</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -3495,7 +3456,7 @@
         <v>0</v>
       </c>
       <c r="E42" s="42" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F42" s="7" t="s">
         <v>5</v>
@@ -3504,7 +3465,7 @@
         <v>5</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -3515,7 +3476,7 @@
         <v>10</v>
       </c>
       <c r="E43" s="42" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F43" s="7" t="s">
         <v>5</v>
@@ -3524,7 +3485,7 @@
         <v>5</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -3535,7 +3496,7 @@
         <v>10</v>
       </c>
       <c r="E44" s="42" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F44" s="7" t="s">
         <v>5</v>
@@ -3544,7 +3505,7 @@
         <v>5</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -3555,7 +3516,7 @@
         <v>10</v>
       </c>
       <c r="E45" s="42" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F45" s="7" t="s">
         <v>5</v>
@@ -3564,7 +3525,7 @@
         <v>5</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -3578,7 +3539,7 @@
         <v>42</v>
       </c>
       <c r="E46" s="42" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F46" s="7" t="s">
         <v>5</v>
@@ -3587,7 +3548,7 @@
         <v>5</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -3598,7 +3559,7 @@
         <v>10</v>
       </c>
       <c r="E47" s="42" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F47" s="7" t="s">
         <v>5</v>
@@ -3607,7 +3568,7 @@
         <v>5</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -3618,7 +3579,7 @@
         <v>10</v>
       </c>
       <c r="E48" s="42" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F48" s="7" t="s">
         <v>5</v>
@@ -3627,7 +3588,7 @@
         <v>5</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="67.5">
@@ -3638,7 +3599,7 @@
         <v>10</v>
       </c>
       <c r="E49" s="42" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F49" s="7" t="s">
         <v>5</v>
@@ -3647,7 +3608,7 @@
         <v>5</v>
       </c>
       <c r="H49" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -3658,7 +3619,7 @@
         <v>10</v>
       </c>
       <c r="E50" s="42" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F50" s="7" t="s">
         <v>5</v>
@@ -3667,7 +3628,7 @@
         <v>5</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -3678,7 +3639,7 @@
         <v>10</v>
       </c>
       <c r="E51" s="42" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F51" s="7" t="s">
         <v>5</v>
@@ -3687,7 +3648,7 @@
         <v>5</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="54">
@@ -3698,7 +3659,7 @@
         <v>10</v>
       </c>
       <c r="E52" s="42" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F52" s="7" t="s">
         <v>5</v>
@@ -3707,7 +3668,7 @@
         <v>5</v>
       </c>
       <c r="H52" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="54">
@@ -3718,7 +3679,7 @@
         <v>10</v>
       </c>
       <c r="E53" s="42" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F53" s="7" t="s">
         <v>5</v>
@@ -3727,7 +3688,7 @@
         <v>5</v>
       </c>
       <c r="H53" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -3736,220 +3697,220 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:B25 B27 B30:B37">
-    <cfRule type="cellIs" dxfId="79" priority="216" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="216" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="217" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="217" operator="equal">
       <formula>"完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C25 C27:C37">
-    <cfRule type="cellIs" dxfId="77" priority="205" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="205" operator="equal">
       <formula>"高"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="206" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="206" operator="equal">
       <formula>"低"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="207" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="207" operator="equal">
       <formula>"中"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D6 D8 D11:D12 D14 B6">
-    <cfRule type="cellIs" dxfId="74" priority="165" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="165" stopIfTrue="1" operator="equal">
       <formula>"是"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="166" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="166" stopIfTrue="1" operator="equal">
       <formula>"否"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="167" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="167" stopIfTrue="1" operator="equal">
       <formula>"不需要"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B38">
-    <cfRule type="cellIs" dxfId="71" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="55" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="56" operator="equal">
       <formula>"完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C38">
-    <cfRule type="cellIs" dxfId="69" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="52" operator="equal">
       <formula>"高"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="53" operator="equal">
       <formula>"低"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="54" operator="equal">
       <formula>"中"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C38">
-    <cfRule type="cellIs" dxfId="66" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="49" operator="equal">
       <formula>"高"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="65" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="50" operator="equal">
       <formula>"低"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="51" operator="equal">
       <formula>"中"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B37">
-    <cfRule type="cellIs" dxfId="63" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="47" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="48" operator="equal">
       <formula>"完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37">
-    <cfRule type="cellIs" dxfId="61" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="44" operator="equal">
       <formula>"高"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="45" operator="equal">
       <formula>"低"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="59" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="46" operator="equal">
       <formula>"中"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37">
-    <cfRule type="cellIs" dxfId="58" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="41" operator="equal">
       <formula>"高"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="42" operator="equal">
       <formula>"低"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="43" operator="equal">
       <formula>"中"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28">
-    <cfRule type="cellIs" dxfId="55" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="39" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="40" operator="equal">
       <formula>"完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B39 B43 B47 B51">
-    <cfRule type="cellIs" dxfId="53" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="37" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="38" operator="equal">
       <formula>"完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B40 B44 B48 B52">
-    <cfRule type="cellIs" dxfId="51" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="35" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="36" operator="equal">
       <formula>"完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B41 B45 B49 B53">
-    <cfRule type="cellIs" dxfId="49" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="33" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="34" operator="equal">
       <formula>"完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C39">
-    <cfRule type="cellIs" dxfId="47" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="30" operator="equal">
       <formula>"高"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="31" operator="equal">
       <formula>"低"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="32" operator="equal">
       <formula>"中"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C39">
-    <cfRule type="cellIs" dxfId="44" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="27" operator="equal">
       <formula>"高"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="28" operator="equal">
       <formula>"低"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="29" operator="equal">
       <formula>"中"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C41">
-    <cfRule type="cellIs" dxfId="41" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="24" operator="equal">
       <formula>"高"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="25" operator="equal">
       <formula>"低"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="26" operator="equal">
       <formula>"中"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C41">
-    <cfRule type="cellIs" dxfId="38" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="21" operator="equal">
       <formula>"高"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="22" operator="equal">
       <formula>"低"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="23" operator="equal">
       <formula>"中"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C40">
-    <cfRule type="cellIs" dxfId="35" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="18" operator="equal">
       <formula>"高"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="19" operator="equal">
       <formula>"低"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="20" operator="equal">
       <formula>"中"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C40">
-    <cfRule type="cellIs" dxfId="32" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="15" operator="equal">
       <formula>"高"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="16" operator="equal">
       <formula>"低"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="17" operator="equal">
       <formula>"中"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B42 B46 B50">
-    <cfRule type="cellIs" dxfId="29" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="13" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="14" operator="equal">
       <formula>"完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C42">
-    <cfRule type="cellIs" dxfId="27" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="10" operator="equal">
       <formula>"高"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="11" operator="equal">
       <formula>"低"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="12" operator="equal">
       <formula>"中"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C42">
-    <cfRule type="cellIs" dxfId="24" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="7" operator="equal">
       <formula>"高"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="8" operator="equal">
       <formula>"低"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="9" operator="equal">
       <formula>"中"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3965,13 +3926,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
       <formula>"高"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
       <formula>"低"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
       <formula>"中"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3989,7 +3950,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4241,7 +4202,7 @@
         <v>42028</v>
       </c>
       <c r="B11" s="36" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C11" s="37" t="s">
         <v>51</v>
@@ -4325,7 +4286,7 @@
         <v>5</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -4348,7 +4309,7 @@
         <v>5</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -4371,7 +4332,7 @@
         <v>5</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -4394,7 +4355,7 @@
         <v>5</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -4417,7 +4378,7 @@
         <v>5</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -4440,7 +4401,7 @@
         <v>5</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -4463,7 +4424,7 @@
         <v>5</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -4486,7 +4447,7 @@
         <v>5</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -4509,38 +4470,38 @@
         <v>5</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B2:B10 B12:B22">
-    <cfRule type="cellIs" dxfId="21" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="42" operator="equal">
       <formula>"未完成"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="43" operator="equal">
       <formula>"完成"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C22">
-    <cfRule type="cellIs" dxfId="19" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="31" operator="equal">
       <formula>"高"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="32" operator="equal">
       <formula>"低"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="33" operator="equal">
       <formula>"中"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C5 C7:C9 C11:C22">
-    <cfRule type="cellIs" dxfId="16" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="28" operator="equal">
       <formula>"高"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="29" operator="equal">
       <formula>"低"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="30" operator="equal">
       <formula>"中"</formula>
     </cfRule>
   </conditionalFormatting>
